--- a/testData/test1.xlsx
+++ b/testData/test1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="15150" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -36,16 +31,84 @@
   </si>
   <si>
     <t>mavAzah</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Billu</t>
+  </si>
+  <si>
+    <t>Pillu</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Veeru</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Baner</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharatra</t>
+  </si>
+  <si>
+    <t>veeru@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +131,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -133,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,34 +455,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>33209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3">
+        <v>23456</v>
+      </c>
+      <c r="K2">
+        <v>5566778899</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>